--- a/Macros/Archivos Macro/Archivo 1.xlsx
+++ b/Macros/Archivos Macro/Archivo 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Documentos/Macros en Excel/Archivos Macro/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7922b0b09328d329/Data World/Programas/Excel Básico a Avanzado/Carpeta para compartir/Macros/Archivos Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{F205FAE2-7352-46CF-AACB-E06A1D58A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EE5DDF48-FCF1-481E-A9A3-3E44D3E68E88}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{F205FAE2-7352-46CF-AACB-E06A1D58A72B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14A95AD0-BCC9-403E-903C-BC3307516438}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D075076-E435-4F11-9DDE-820B8DE99C9D}"/>
   </bookViews>
@@ -634,13 +634,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A4EE9B-8995-486B-ACF0-1EA3525C1B68}">
+  <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +669,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -692,7 +695,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -718,7 +721,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -744,7 +747,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -770,7 +773,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -796,7 +799,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -822,7 +825,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -848,7 +851,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -874,7 +877,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -900,7 +903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -926,7 +929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -952,7 +955,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -978,7 +981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1030,7 +1033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -1063,13 +1066,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9269893F-5DE5-495F-9814-82503C237B21}">
+  <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1099,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1121,7 +1125,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1173,7 +1177,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1199,7 +1203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1225,7 +1229,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1251,7 +1255,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1277,7 +1281,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1303,7 +1307,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1329,7 +1333,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1355,7 +1359,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1381,7 +1385,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -1407,7 +1411,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1433,7 +1437,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1459,7 +1463,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
